--- a/Primer-parcial-proyecto/Cronograma Proyecto Primer Parcial.xlsx
+++ b/Primer-parcial-proyecto/Cronograma Proyecto Primer Parcial.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Modificacion de Matriz utilizando objetos</t>
   </si>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,34 +314,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,6 +329,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,14 +674,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -693,16 +710,16 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="18">
         <v>43868</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="18">
         <v>43868</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="17">
         <v>1</v>
       </c>
     </row>
@@ -713,16 +730,16 @@
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="18">
         <v>43868</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="18">
         <v>43868</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="17">
         <v>1</v>
       </c>
     </row>
@@ -730,13 +747,13 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
@@ -748,57 +765,59 @@
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="18">
         <v>43871</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="18">
         <v>43872</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="25"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="18">
         <v>43871</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="18">
         <v>43872</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="26"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="20">
         <v>44114</v>
       </c>
-      <c r="E10" s="30">
-        <v>43874</v>
-      </c>
-      <c r="F10" s="29" t="s">
+      <c r="E10" s="20">
+        <v>43877</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
@@ -810,55 +829,55 @@
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="18">
         <v>43871</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="18">
         <v>43872</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="18">
         <v>43871</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="18">
         <v>43872</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="20">
         <v>43871</v>
       </c>
-      <c r="E14" s="30">
-        <v>43874</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="20">
+        <v>43877</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
@@ -870,57 +889,61 @@
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="20">
         <v>44114</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="18">
         <v>43872</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="F16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="25"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="18">
         <v>43871</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="18">
         <v>43872</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="F17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="26"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="18">
         <v>43871</v>
       </c>
-      <c r="E18" s="30">
-        <v>43874</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="E18" s="20">
+        <v>43877</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>3.4</v>
       </c>
@@ -929,258 +952,244 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="20">
         <v>44114</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="18">
         <v>43872</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="F20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="18">
         <v>43871</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="18">
         <v>43872</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="28">
-        <v>43871</v>
-      </c>
-      <c r="E22" s="30">
-        <v>43874</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+      <c r="F21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D22" s="20">
         <v>44117</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E22" s="20">
         <v>44118</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
         <v>5</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="30">
-        <v>43875</v>
-      </c>
-      <c r="E24" s="30">
-        <v>43877</v>
-      </c>
-      <c r="F24" s="29" t="s">
+      <c r="D23" s="20">
+        <v>44117</v>
+      </c>
+      <c r="E23" s="20">
+        <v>43876</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
         <v>6</v>
       </c>
+      <c r="C24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20">
+        <v>44117</v>
+      </c>
+      <c r="E24" s="20">
+        <v>43876</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>7</v>
+      </c>
       <c r="C25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="30">
-        <v>43875</v>
-      </c>
-      <c r="E25" s="30">
-        <v>43877</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="20">
+        <v>43876</v>
+      </c>
+      <c r="E25" s="20">
+        <v>43878</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>8</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="30">
+        <v>25</v>
+      </c>
+      <c r="D26" s="20">
+        <v>43876</v>
+      </c>
+      <c r="E26" s="20">
         <v>43878</v>
       </c>
-      <c r="E26" s="30">
-        <v>43880</v>
-      </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="30">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="20">
+        <v>43876</v>
+      </c>
+      <c r="E27" s="20">
         <v>43878</v>
       </c>
-      <c r="E27" s="30">
-        <v>43880</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1"/>
+      <c r="F27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="30">
-        <v>43880</v>
-      </c>
-      <c r="E28" s="30">
-        <v>43881</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="20">
+        <v>43878</v>
+      </c>
+      <c r="E28" s="20">
+        <v>43878</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="30">
-        <v>43881</v>
-      </c>
-      <c r="E29" s="30">
-        <v>43881</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="21">
+        <v>43878</v>
+      </c>
+      <c r="E29" s="21">
+        <v>43879</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
-        <v>11</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="31">
-        <v>43882</v>
-      </c>
-      <c r="E30" s="31">
-        <v>43883</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
-        <v>12</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="17"/>
+        <v>12.1</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="20">
+        <v>43878</v>
+      </c>
+      <c r="E31" s="20">
+        <v>43879</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
-        <v>12.1</v>
+        <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="31">
-        <v>43883</v>
-      </c>
-      <c r="E32" s="31">
-        <v>43884</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
-        <v>13</v>
-      </c>
-      <c r="C33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="31">
-        <v>43885</v>
-      </c>
-      <c r="E33" s="31">
-        <v>43885</v>
-      </c>
-      <c r="F33" s="29" t="s">
+      <c r="D32" s="21">
+        <v>50</v>
+      </c>
+      <c r="E32" s="21">
+        <v>50</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Primer-parcial-proyecto/Cronograma Proyecto Primer Parcial.xlsx
+++ b/Primer-parcial-proyecto/Cronograma Proyecto Primer Parcial.xlsx
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,9 +314,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,57 +321,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,21 +660,21 @@
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -710,16 +703,16 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>43868</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>43868</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="26">
         <v>1</v>
       </c>
     </row>
@@ -730,16 +723,16 @@
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>43868</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>43868</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="26">
         <v>1</v>
       </c>
     </row>
@@ -747,13 +740,13 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="35"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
@@ -765,59 +758,59 @@
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="35"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>43871</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>43872</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="31"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>43871</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>43872</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>44114</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>43877</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
@@ -829,55 +822,59 @@
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="30"/>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>43871</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>43872</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="25"/>
+      <c r="G12" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="35"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>43871</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>43872</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="26"/>
+      <c r="G13" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="31"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>43871</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>43877</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="34"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
@@ -889,59 +886,59 @@
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="36"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="30"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>44114</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>43872</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>43871</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>43872</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>43871</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>43877</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="37"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
@@ -952,42 +949,42 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="24"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>44114</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>43872</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="26"/>
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="31"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>43871</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>43872</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
@@ -996,16 +993,16 @@
       <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>44117</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>44118</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="34"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
@@ -1014,16 +1011,16 @@
       <c r="C23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>44117</v>
       </c>
-      <c r="E23" s="20">
-        <v>43876</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="19">
+        <v>44118</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
@@ -1032,16 +1029,16 @@
       <c r="C24" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>44117</v>
       </c>
-      <c r="E24" s="20">
-        <v>43876</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="19">
+        <v>44118</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="34"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -1050,16 +1047,16 @@
       <c r="C25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="17">
+        <v>43871</v>
+      </c>
+      <c r="E25" s="19">
         <v>43876</v>
       </c>
-      <c r="E25" s="20">
-        <v>43878</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="34"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
@@ -1068,16 +1065,16 @@
       <c r="C26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>43876</v>
       </c>
-      <c r="E26" s="20">
-        <v>43878</v>
-      </c>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="19">
+        <v>43876</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="34"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
@@ -1086,16 +1083,16 @@
       <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>43876</v>
       </c>
-      <c r="E27" s="20">
-        <v>43878</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="E27" s="19">
+        <v>43877</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
@@ -1104,16 +1101,16 @@
       <c r="C28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>43878</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>43878</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="34"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
@@ -1122,28 +1119,28 @@
       <c r="C29" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
+        <v>43876</v>
+      </c>
+      <c r="E29" s="19">
         <v>43878</v>
       </c>
-      <c r="E29" s="21">
-        <v>43879</v>
-      </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>12</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="36"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
@@ -1152,16 +1149,16 @@
       <c r="C31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>43878</v>
       </c>
-      <c r="E31" s="20">
-        <v>43879</v>
-      </c>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="19">
+        <v>43878</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="34"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
@@ -1170,26 +1167,26 @@
       <c r="C32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="21">
-        <v>50</v>
-      </c>
-      <c r="E32" s="21">
-        <v>50</v>
-      </c>
-      <c r="F32" s="19" t="s">
+      <c r="D32" s="19">
+        <v>43878</v>
+      </c>
+      <c r="E32" s="19">
+        <v>43878</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Primer-parcial-proyecto/Cronograma Proyecto Primer Parcial.xlsx
+++ b/Primer-parcial-proyecto/Cronograma Proyecto Primer Parcial.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan Cifuentes\Desktop\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>Modificacion de Matriz utilizando objetos</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Crear factura por Empleado</t>
   </si>
   <si>
-    <t>Creacion de Bitacora</t>
-  </si>
-  <si>
     <t>Login y registro de Usuarios</t>
   </si>
   <si>
@@ -123,6 +120,39 @@
   </si>
   <si>
     <t>Finanzas (Reportes)</t>
+  </si>
+  <si>
+    <t>Creacion de Bitacora en Excel</t>
+  </si>
+  <si>
+    <t>14/02/020</t>
+  </si>
+  <si>
+    <t>Diagrama Cero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Ingresar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Modificar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Eliminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Seguridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Recuperar Contraseña</t>
+  </si>
+  <si>
+    <t>15/02/020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Codigo QR</t>
+  </si>
+  <si>
+    <t>17/02/020</t>
   </si>
 </sst>
 </file>
@@ -161,7 +191,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -280,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -342,6 +378,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,6 +406,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,10 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G32"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,20 +702,20 @@
     <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -738,50 +779,52 @@
     </row>
     <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="22"/>
+        <v>2.1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="17">
+        <v>43868</v>
+      </c>
+      <c r="E6" s="17">
+        <v>43868</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="27"/>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="17">
-        <v>43871</v>
-      </c>
-      <c r="E8" s="17">
-        <v>43872</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="26">
-        <v>1</v>
-      </c>
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="17">
         <v>43871</v>
@@ -799,77 +842,73 @@
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="19">
-        <v>44114</v>
-      </c>
-      <c r="E10" s="19">
-        <v>43877</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="17">
+        <v>43871</v>
+      </c>
+      <c r="E10" s="17">
+        <v>43872</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="30"/>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="29"/>
+      <c r="C11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="29"/>
       <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="17">
-        <v>43871</v>
-      </c>
-      <c r="E12" s="17">
-        <v>43872</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E12" s="19">
+        <v>43878</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="29"/>
       <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="17">
-        <v>43871</v>
-      </c>
-      <c r="E13" s="17">
-        <v>43872</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E13" s="19">
+        <v>43878</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="31"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="30"/>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D14" s="19">
-        <v>43871</v>
+        <v>44114</v>
       </c>
       <c r="E14" s="19">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>22</v>
@@ -878,36 +917,36 @@
     </row>
     <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27"/>
+    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="31"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="19">
-        <v>44114</v>
+      <c r="D16" s="17">
+        <v>43871</v>
       </c>
       <c r="E16" s="17">
         <v>43872</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="28"/>
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -918,42 +957,42 @@
         <v>43872</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="29"/>
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" s="32"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="19">
         <v>43871</v>
       </c>
       <c r="E18" s="19">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="28"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
@@ -964,14 +1003,14 @@
         <v>43872</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="31"/>
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="29"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -982,211 +1021,328 @@
         <v>43872</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="30"/>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="17">
+        <v>43871</v>
+      </c>
+      <c r="E22" s="19">
+        <v>43878</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B24" s="31"/>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="19">
+        <v>44114</v>
+      </c>
+      <c r="E24" s="17">
+        <v>43872</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
-        <v>4</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="19">
-        <v>44117</v>
-      </c>
-      <c r="E22" s="19">
-        <v>44118</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
-        <v>5</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="19">
-        <v>44117</v>
-      </c>
-      <c r="E23" s="19">
-        <v>44118</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
-        <v>6</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="19">
-        <v>44117</v>
-      </c>
-      <c r="E24" s="19">
-        <v>44118</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
-        <v>7</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="G24" s="26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B25" s="32"/>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D25" s="17">
         <v>43871</v>
       </c>
-      <c r="E25" s="19">
-        <v>43876</v>
+      <c r="E25" s="17">
+        <v>43872</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
-        <v>8</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="D26" s="19">
-        <v>43876</v>
-      </c>
-      <c r="E26" s="19">
-        <v>43876</v>
+        <v>44117</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="G26" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="19">
-        <v>43876</v>
-      </c>
-      <c r="E27" s="19">
-        <v>43877</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="24"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
-        <v>10</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>3</v>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D28" s="19">
-        <v>43878</v>
-      </c>
-      <c r="E28" s="19">
-        <v>43878</v>
+        <v>44117</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="G28" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
-        <v>11</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>2</v>
+      <c r="B29" s="3"/>
+      <c r="C29" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="D29" s="19">
-        <v>43876</v>
-      </c>
-      <c r="E29" s="19">
-        <v>43878</v>
+        <v>44117</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
-        <v>12</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D31" s="19">
-        <v>43878</v>
+        <v>44117</v>
       </c>
       <c r="E31" s="19">
         <v>43878</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
+        <v>6</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
+        <v>44117</v>
+      </c>
+      <c r="E32" s="19">
+        <v>44118</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
+        <v>7</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="17">
+        <v>43871</v>
+      </c>
+      <c r="E33" s="19">
+        <v>43876</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="19">
+        <v>43876</v>
+      </c>
+      <c r="E34" s="19">
+        <v>43876</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="19">
+        <v>43876</v>
+      </c>
+      <c r="E35" s="19">
+        <v>43877</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>10</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="19">
+        <v>43878</v>
+      </c>
+      <c r="E36" s="19">
+        <v>43878</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
+        <v>11</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="19">
+        <v>43876</v>
+      </c>
+      <c r="E37" s="19">
+        <v>43878</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3">
+        <v>12</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="19">
+        <v>43878</v>
+      </c>
+      <c r="E39" s="19">
+        <v>43878</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
         <v>13</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D40" s="19">
         <v>43878</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E40" s="19">
         <v>43878</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F40" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
